--- a/Documentos/02 Requisitos/009 Especificación detallada Cliente/002 ESP_DET_WRRS_Modulo de historial de cuñas.xlsx
+++ b/Documentos/02 Requisitos/009 Especificación detallada Cliente/002 ESP_DET_WRRS_Modulo de historial de cuñas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>Orden de navegación</t>
   </si>
@@ -60,45 +60,15 @@
     <t>Tipo de campo</t>
   </si>
   <si>
-    <t>Número máximo de dígitos</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos enteros</t>
-  </si>
-  <si>
-    <t>Dígitos numéricos decimales</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Valor</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Número de cuñas</t>
-  </si>
-  <si>
     <t>Campo de tabla</t>
   </si>
   <si>
-    <t>En este campo se mostrará el ID de registro de la cuña</t>
-  </si>
-  <si>
-    <t>Este ID es autogenerado por el sistema con un número único para cada cuña</t>
-  </si>
-  <si>
-    <t>ID de cuña</t>
-  </si>
-  <si>
-    <t>Debe ser solo numérico</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -111,64 +81,124 @@
     <t>Hace referencia a la fecha en la que fue solicitada la cuña.</t>
   </si>
   <si>
-    <t>La fecha debe ser presentada en formato dd/mm/aaaa</t>
-  </si>
-  <si>
-    <t>Fecha de solcitud</t>
-  </si>
-  <si>
     <t>Debe corresponder a un tipo de dato de fecha</t>
   </si>
   <si>
-    <t>Breve resumen de la cuña que fue solicitada, en el cual se incluye la categoría y los demás aspectos que componen la solicitud de la cuña</t>
-  </si>
-  <si>
-    <t>Descripción en forma de narrativa</t>
-  </si>
-  <si>
-    <t>Descripción de cuña</t>
-  </si>
-  <si>
     <t>Debe contener caracteres alfanuméricos.</t>
   </si>
   <si>
-    <t>Precio que fue cobrado por la emisora por la emisión de esa cuña.</t>
-  </si>
-  <si>
-    <t>Se debe presentar en pesos colombianos.</t>
-  </si>
-  <si>
-    <t>Valor de la cuña</t>
-  </si>
-  <si>
-    <t>Debe corresponder a un tipo de dato moneda.</t>
-  </si>
-  <si>
-    <t>Input text</t>
-  </si>
-  <si>
-    <t>Campo destinado para mostrar el estado de la cuña en especifico.</t>
-  </si>
-  <si>
-    <t>El estado debe estar actualizado con respecto a la información contenida por la emisora en sus bases de datos.</t>
-  </si>
-  <si>
-    <t>Estado de la cuña</t>
-  </si>
-  <si>
-    <t>Debe ser uno de los estados contemplados como: Finalizado, En emisión, En espera de emisión</t>
-  </si>
-  <si>
-    <t>En este campo se mostrará el número total de cuñas solicitadas por el usuario.</t>
-  </si>
-  <si>
-    <t>El número de cuñas debe contemplar las cuñas de todas las categorias que haya solicitado el usuario.</t>
-  </si>
-  <si>
-    <t>Debe corresponder al número de cuñas solicitadas por el usuario</t>
-  </si>
-  <si>
-    <t>Campo de texto no modificable</t>
+    <t>La fecha debe ser presentada en formato aaaa-mm-dd</t>
+  </si>
+  <si>
+    <t>Contenido</t>
+  </si>
+  <si>
+    <t>Mensaje de la cuña que fue solicitada, en el cual se incluye el texto referente al contenido.</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Categoría seleccionada para la cuña.</t>
+  </si>
+  <si>
+    <t>Se deben mostrar solo los tipos especificados como: Comercial, Informativa, Exequias y Religiosa</t>
+  </si>
+  <si>
+    <t>Debe contener una de las categorias mencionadas.</t>
+  </si>
+  <si>
+    <t>Número máximo de caractéres</t>
+  </si>
+  <si>
+    <t>Número mínimo de caractéres</t>
+  </si>
+  <si>
+    <t>No debe permitirse su modificación. En caso de que su contenido sea muy largo se debe mostrar una barra de desplazamiento vertical a la derecha.</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Los tipos de plan que pueden ser mostrados son: Único y Semanal.</t>
+  </si>
+  <si>
+    <t>Debe contener uno de los tipos de plan mencionados.</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Las secciones del día que pueden ser mostradas son: Mañana, Medio día, Tarde y Noche</t>
+  </si>
+  <si>
+    <t>Debe contener una sección del día de las mencionadas.</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Los valores que podrán ser mostrados son: 10, 15, 30, 40 y 60.</t>
+  </si>
+  <si>
+    <t>Debe contener un valor en segundos de los mencionados en los aspectos a tener en cuenta.</t>
+  </si>
+  <si>
+    <t>Los números de repeticiones que pueden ser mostrados son: 1, 3, 5, 10 y 15.</t>
+  </si>
+  <si>
+    <t>Debe contener uno de los números de repeticiones especificados.</t>
+  </si>
+  <si>
+    <t>En esta celda se mostrará el costo de emisión de la cuña.</t>
+  </si>
+  <si>
+    <t>Este costo estará definido por las características registradas a la hora de solicitar la cuña.</t>
+  </si>
+  <si>
+    <t>Debe ser un valor numérico en pesos colombianos.</t>
+  </si>
+  <si>
+    <t>Mat-paginator</t>
+  </si>
+  <si>
+    <t>Mat-select</t>
+  </si>
+  <si>
+    <t>En este campo se permitirá al uauario mostrar cierta cantidad de cuñas que hayan sido solicitadas por él con anterioridad.</t>
+  </si>
+  <si>
+    <t>El número de cuñas por página será de 5 o 10.</t>
+  </si>
+  <si>
+    <t>Debe ser un valor de la lista desplegada, 5 o 10.</t>
+  </si>
+  <si>
+    <t>Items per page</t>
+  </si>
+  <si>
+    <t>|&lt;  &lt;  &gt;  &gt;|</t>
+  </si>
+  <si>
+    <t>Por medio de estos botones se permitirá al usuario navegar por las páginas en caso de que tenga más cuñas que el número indicado en el campo anterior.</t>
+  </si>
+  <si>
+    <t>&lt;| Permitirá ir a la primera página. &lt; Permitirá ir una página atrás. &gt; Permitirá ir una página adelante. &gt;| Permitirá ir a la última página.</t>
+  </si>
+  <si>
+    <t>Celda destinado para mostrar el tipo de plan asignado a la cuña.</t>
+  </si>
+  <si>
+    <t>En esta celda se mostrará la sección del día en la cual se emitirá la cuña.</t>
+  </si>
+  <si>
+    <t>En esta celda se mostrará la duración en segundos de la cuña solicitada.</t>
+  </si>
+  <si>
+    <t>En esta celda se mostrará el número de repeticiones que se emitirá la cuña por día.</t>
+  </si>
+  <si>
+    <t>Repeticiones por día</t>
   </si>
 </sst>
 </file>
@@ -520,10 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,10 +574,9 @@
     <col min="13" max="13" width="21.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="13.109375" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,316 +617,484 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2">
-        <v>15</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="2">
-        <v>7</v>
-      </c>
-      <c r="O7" s="2">
-        <v>7</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>